--- a/zadania 3 - miary rozproszenia asymetrii i skupienia .xlsx
+++ b/zadania 3 - miary rozproszenia asymetrii i skupienia .xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68401C9-6A12-4E7C-A045-FB60BCF9DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Zad 1" sheetId="22" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="Średnia">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Wynik z kolokwium</t>
   </si>
@@ -216,11 +215,32 @@
   <si>
     <t>Oblicz i zinterpretuj klasyczny współczynnik asymetrii</t>
   </si>
+  <si>
+    <t>Różnica pomiędzy skrajnymi wynikami z kolokwium wyniosła 99pkt</t>
+  </si>
+  <si>
+    <t>Q1=</t>
+  </si>
+  <si>
+    <t>Q3=</t>
+  </si>
+  <si>
+    <t>Po odrzuceniu 25% najniższych wyników oraz 25% wyników najwyższych w pozostałej grupie róznica pomiędzy skrajnymi wynikami wynosi 44pkt</t>
+  </si>
+  <si>
+    <t>Brak interpretacji</t>
+  </si>
+  <si>
+    <t>Wyniki studentów odchylają się srednio o 24,6pkt względem przeciętnego wyniku z kolokwium (sredniej arytemtycznej)</t>
+  </si>
+  <si>
+    <t>Po odrzuceniu 50% wartosci skrajnych (25% najmniejszych oraz 25% największych) wyniki w pozostałej grupie (50% wartosci srodkowych) odchylają się o 22pkt względem mediany</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -614,7 +634,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -682,6 +702,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,33 +732,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normalny 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalny 2" xfId="1"/>
+    <cellStyle name="Normalny 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,9 +754,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,9 +794,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,7 +831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,7 +866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,16 +1039,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>55</v>
       </c>
@@ -1043,64 +1064,98 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f>MIN(A2:A226)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f>MAX(A2:A226)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="24">
+        <f>E5-E4</f>
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8">
+        <f>_xlfn.QUARTILE.EXC(A2:A226,1)</f>
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="24">
+        <f>I9-I8</f>
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9">
+        <f>_xlfn.QUARTILE.EXC(A2:A226,3)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1108,26 +1163,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="35">
+        <f>_xlfn.VAR.P(A2:A226)</f>
+        <v>607.72693333333336</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1135,26 +1196,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="35">
+        <f>SQRT(E13)</f>
+        <v>24.652118232179021</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31</v>
       </c>
@@ -1162,1053 +1229,1066 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>_xlfn.QUARTILE.EXC(A2:A226,1)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f>_xlfn.QUARTILE.EXC(A2:A226,3)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="24">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>74</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>58</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>84</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>52</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>67</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A51">
+  <sortState ref="A2:A51">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,31 +2296,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035550EB-B9BE-445D-8C5C-C664E5955CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2251,48 +2331,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2303,7 +2383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2314,7 +2394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2325,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -2336,7 +2416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2347,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -2358,17 +2438,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28">
         <f>SUM(C7:C12)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
   </sheetData>
@@ -2377,26 +2457,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D570A-925F-4D0C-99BB-DB3EE5F91A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2407,40 +2487,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2457,7 +2537,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2471,7 +2551,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2485,7 +2565,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -2499,7 +2579,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -2513,7 +2593,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2527,7 +2607,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -2541,14 +2621,14 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="31">
         <f>SUM(C7:C12)</f>
         <v>317</v>
       </c>
@@ -2558,10 +2638,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -2570,50 +2650,50 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2008</v>
       </c>
@@ -2635,7 +2715,7 @@
         <v>200617275</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2009</v>
       </c>
@@ -2646,7 +2726,7 @@
         <v>165601136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2010</v>
       </c>
@@ -2657,7 +2737,7 @@
         <v>201703334</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2011</v>
       </c>
@@ -2668,7 +2748,7 @@
         <v>234205823</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>2012</v>
       </c>
@@ -2679,7 +2759,7 @@
         <v>250464794</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>2013</v>
       </c>
@@ -2690,7 +2770,7 @@
         <v>232481271</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>2014</v>
       </c>
@@ -2701,7 +2781,7 @@
         <v>227544231</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>2015</v>
       </c>
@@ -2712,7 +2792,7 @@
         <v>200113780</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>2016</v>
       </c>
@@ -2723,7 +2803,7 @@
         <v>189406028</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>2017</v>
       </c>

--- a/zadania 3 - miary rozproszenia asymetrii i skupienia .xlsx
+++ b/zadania 3 - miary rozproszenia asymetrii i skupienia .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Zad 1" sheetId="22" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>Wynik z kolokwium</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Dla pewnego szeregu odchylenie standardowe wynosiło 3,71</t>
   </si>
   <si>
-    <t>Średnia arytmatyczns stanowi ok. 282% wartości odchylenia, a mediana jest o 12% niższa od średniej.</t>
-  </si>
-  <si>
     <t>Oblicz i zinterpretuj klasyczny współczynnik asymetrii</t>
   </si>
   <si>
@@ -235,16 +232,118 @@
   </si>
   <si>
     <t>Po odrzuceniu 50% wartosci skrajnych (25% najmniejszych oraz 25% największych) wyniki w pozostałej grupie (50% wartosci srodkowych) odchylają się o 22pkt względem mediany</t>
+  </si>
+  <si>
+    <t>srednia=</t>
+  </si>
+  <si>
+    <t>xi*ni</t>
+  </si>
+  <si>
+    <t>xisr</t>
+  </si>
+  <si>
+    <t>(xisr)2</t>
+  </si>
+  <si>
+    <t>(xisr)2*ni</t>
+  </si>
+  <si>
+    <t>s=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wspolczynnik zmiennosci dla odchylenia standardowego </t>
+  </si>
+  <si>
+    <t>W badanym rozkładzie występuje zróznicowanie o niskiej sile</t>
+  </si>
+  <si>
+    <t>&gt;a</t>
+  </si>
+  <si>
+    <t>(xisr)3</t>
+  </si>
+  <si>
+    <t>(xisr)3*ni</t>
+  </si>
+  <si>
+    <t>moment centralny 3 rzędu (m3)=</t>
+  </si>
+  <si>
+    <t>klasyczny wspólczynnik asymetrii=</t>
+  </si>
+  <si>
+    <t>s^3=</t>
+  </si>
+  <si>
+    <t>W rozkładzie występuje asymetria lewostronna</t>
+  </si>
+  <si>
+    <t>&gt;b</t>
+  </si>
+  <si>
+    <t>s^2=</t>
+  </si>
+  <si>
+    <t>Do=</t>
+  </si>
+  <si>
+    <t>Pod uwagę bierzemy wartosc cechy ktorej odpowiada najwyzsza liczebnosc</t>
+  </si>
+  <si>
+    <t>klasyczno-pozycyjny wspolczynnik asymetrii</t>
+  </si>
+  <si>
+    <t>W rozkladzie wystepuje asymetria prawostronna o sredniej sile</t>
+  </si>
+  <si>
+    <t>&gt;c</t>
+  </si>
+  <si>
+    <t>Średnia arytmatyczna stanowi ok. 282% wartości odchylenia, a mediana jest o 12% niższa od średniej.</t>
+  </si>
+  <si>
+    <t>xsr=</t>
+  </si>
+  <si>
+    <t>mediana=</t>
+  </si>
+  <si>
+    <t>W szeregu wystepuje asymetria prawostronna bardzo wysoka</t>
+  </si>
+  <si>
+    <t>As=</t>
+  </si>
+  <si>
+    <t>nisk</t>
+  </si>
+  <si>
+    <t>p=</t>
+  </si>
+  <si>
+    <t>xl=</t>
+  </si>
+  <si>
+    <t>pl=</t>
+  </si>
+  <si>
+    <t>xu=</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Me=</t>
+  </si>
+  <si>
+    <t>Aq=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +398,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +423,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +753,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -649,7 +775,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -723,6 +848,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,13 +858,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1"/>
     <cellStyle name="Normalny 3" xfId="2"/>
+    <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,6 +890,401 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219729</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="47625"/>
+          <a:ext cx="4686954" cy="609685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>267366</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="638175"/>
+          <a:ext cx="4772691" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495998</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="619125"/>
+          <a:ext cx="5001323" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209664</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4105275"/>
+          <a:ext cx="819264" cy="428685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467386</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4657725"/>
+          <a:ext cx="4734586" cy="390580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314794</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6029325"/>
+          <a:ext cx="3362794" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>162394</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="447675"/>
+          <a:ext cx="3362794" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>162733</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="9525"/>
+          <a:ext cx="5792008" cy="1333686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1553176</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="533400"/>
+          <a:ext cx="4305901" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>181342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="47625"/>
+          <a:ext cx="5944430" cy="2629267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,12 +1634,12 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f>E5-E4</f>
         <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,14 +1655,14 @@
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8">
         <f>_xlfn.QUARTILE.EXC(A2:A226,1)</f>
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1138,12 +1672,12 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f>I9-I8</f>
         <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <f>_xlfn.QUARTILE.EXC(A2:A226,3)</f>
@@ -1175,12 +1709,12 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <f>_xlfn.VAR.P(A2:A226)</f>
         <v>607.72693333333336</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1208,12 +1742,12 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <f>SQRT(E13)</f>
         <v>24.652118232179021</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,11 +1799,11 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,166 +2866,522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="36">
+        <f>B7*C7</f>
+        <v>26</v>
+      </c>
+      <c r="E7" s="31">
+        <f>B7-$B$15</f>
+        <v>-1.4451219512195124</v>
+      </c>
+      <c r="F7" s="31">
+        <f>E7^2</f>
+        <v>2.0883774538964905</v>
+      </c>
+      <c r="G7" s="31">
+        <f>F7*C7</f>
+        <v>27.148906900654378</v>
+      </c>
+      <c r="H7" s="31">
+        <f>E7^3</f>
+        <v>-3.0179601010577337</v>
+      </c>
+      <c r="I7" s="31">
+        <f>H7*C7</f>
+        <v>-39.233481313750538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>3</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="36">
+        <f t="shared" ref="D8:D12" si="0">B8*C8</f>
+        <v>78</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" ref="E8:E12" si="1">B8-$B$15</f>
+        <v>-0.44512195121951237</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" ref="F8:F12" si="2">E8^2</f>
+        <v>0.19813355145746595</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" ref="G8:G12" si="3">F8*C8</f>
+        <v>5.1514723378941145</v>
+      </c>
+      <c r="H8" s="31">
+        <f>E8^3</f>
+        <v>-8.8193593026798897E-2</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" ref="I8:I12" si="4">H8*C8</f>
+        <v>-2.2930334186967714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>3.5</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="1"/>
+        <v>5.4878048780487632E-2</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="2"/>
+        <v>3.0116002379535801E-3</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="3"/>
+        <v>3.3127602617489385E-2</v>
+      </c>
+      <c r="H9" s="31">
+        <f>E9^3</f>
+        <v>1.6527074476574473E-4</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="4"/>
+        <v>1.817978192423192E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="36">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.55487804878048763</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.30788964901844124</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="3"/>
+        <v>4.6183447352766187</v>
+      </c>
+      <c r="H10" s="31">
+        <f>E10^3</f>
+        <v>0.17084120768706185</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="4"/>
+        <v>2.5626181153059275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>4.5</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="36">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="1"/>
+        <v>1.0548780487804876</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="2"/>
+        <v>1.1127676977989289</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="3"/>
+        <v>11.127676977989289</v>
+      </c>
+      <c r="H11" s="31">
+        <f>E11^3</f>
+        <v>1.1738342178000896</v>
+      </c>
+      <c r="I11" s="31">
+        <f t="shared" si="4"/>
+        <v>11.738342178000895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="D12" s="36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="1"/>
+        <v>1.5548780487804876</v>
+      </c>
+      <c r="F12" s="31">
+        <f t="shared" si="2"/>
+        <v>2.4176457465794163</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="3"/>
+        <v>16.923520226055913</v>
+      </c>
+      <c r="H12" s="31">
+        <f>E12^3</f>
+        <v>3.7591443010838481</v>
+      </c>
+      <c r="I12" s="31">
+        <f t="shared" si="4"/>
+        <v>26.314010107586938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27">
         <f>SUM(C7:C12)</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="D13" s="37">
+        <f>SUM(D7:D12)</f>
+        <v>282.5</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="38">
+        <f>SUM(G7:G12)</f>
+        <v>65.003048780487802</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="38">
+        <f>SUM(I7:I12)</f>
+        <v>-0.90972635336112617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5">
+        <f>D13/C13</f>
+        <v>3.4451219512195124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="5">
+        <f>G13/C13</f>
+        <v>0.79272010707911955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SQRT(B16)</f>
+        <v>0.8903483066076554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40">
+        <f>B17/B15</f>
+        <v>0.25843738457284154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="5">
+        <f>I13/C13</f>
+        <v>-1.1094223821477149E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="5">
+        <f>N25/K27</f>
+        <v>-1.5718717625099358E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="5">
+        <f>B17^3</f>
+        <v>0.70579700495173336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43">
+        <f>(B15-B37)/B17</f>
+        <v>0.49994136891828972</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B7*2.82</f>
+        <v>10.462199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B8*0.88</f>
+        <v>9.2067359999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="5">
+        <f>3*B9-2*B8</f>
+        <v>6.6958079999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <f>B8-B12/B7</f>
+        <v>8.6573999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,13 +3414,15 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2541,10 +3433,13 @@
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="4">
+        <v>96</v>
+      </c>
+      <c r="D7" s="4">
         <v>96</v>
       </c>
       <c r="H7" s="5"/>
@@ -2555,11 +3450,15 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="4">
         <v>101</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8+D7</f>
+        <v>197</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2569,11 +3468,15 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="4">
         <v>79</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D12" si="0">C9+D8</f>
+        <v>276</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2583,11 +3486,15 @@
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="4">
         <v>31</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>307</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2597,11 +3504,15 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>315</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -2611,27 +3522,32 @@
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>317</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <f>SUM(C7:C12)</f>
         <v>317</v>
       </c>
+      <c r="D13" s="30"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="H13" s="3"/>
@@ -2641,11 +3557,132 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <f>E20+(E18-E19)*(E21-E20)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <f>H20+(H18-H19)*(H22-H21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <f>(C13+1)*0.25</f>
+        <v>79.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <f>(C13+1)*0.75</f>
+        <v>238.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <f>(C13+1)*0.5</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>238</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <f>H17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <f>(E17+B17-2*B23)/E17-B17</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2694,123 +3731,123 @@
       <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>2008</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>210478513</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>200617275</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>2009</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>149569836</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>165601136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>2010</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>174127590</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>201703334</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>2011</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>209191546</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>234205823</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>2012</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>191430112</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>250464794</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>2013</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>205613793</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>232481271</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>2014</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>216687292</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>227544231</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>2015</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>189696474</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>200113780</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>2016</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>188517819</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>189406028</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>2017</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>217978576</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>228441737</v>
       </c>
     </row>

--- a/zadania 3 - miary rozproszenia asymetrii i skupienia .xlsx
+++ b/zadania 3 - miary rozproszenia asymetrii i skupienia .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Zad 1" sheetId="22" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Zad4" sheetId="32" r:id="rId4"/>
     <sheet name="Zad 5" sheetId="24" r:id="rId5"/>
     <sheet name="Zad6" sheetId="26" r:id="rId6"/>
+    <sheet name="spss" sheetId="33" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Średnia">#REF!</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Wynik z kolokwium</t>
   </si>
@@ -338,11 +339,92 @@
   <si>
     <t>Aq=</t>
   </si>
+  <si>
+    <t>srednia</t>
+  </si>
+  <si>
+    <t>xi-xsr</t>
+  </si>
+  <si>
+    <t>(xi-xsr)^2</t>
+  </si>
+  <si>
+    <t>(xi-xsr)^2*ni</t>
+  </si>
+  <si>
+    <t>s^2</t>
+  </si>
+  <si>
+    <t>(xi-xsr)^4</t>
+  </si>
+  <si>
+    <t>(xi-xsr)^4*ni</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>s^4</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K'</t>
+  </si>
+  <si>
+    <t>Eksces kurtozy informuje nas o koncentracji w rozkladzie wyrazanej względem sredniej arytmetycznej. Otrzymana wartosc jest bliska zeru a zatem koncentracja w badanym rozkladzie jest zblizona do tej z rozkladu normalnego. Jednakze formalnie otrzymalismy wartosc dodatnia a zatem badany rozklad nalezy klasyfikowac jako leptokurtyczny(wysmukly)</t>
+  </si>
+  <si>
+    <t>Respondentów majacych dokładnie 8 lat nauki jest 59.</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Najniższa srednia wieku dla zawarcia malzenstwa = 21,72</t>
+  </si>
+  <si>
+    <t>Północno zachodnio centralny</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>e,f)</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>lato</t>
+  </si>
+  <si>
+    <t>x sr</t>
+  </si>
+  <si>
+    <t>zima</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>wyzsze zroznicowanie wieku</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,16 +842,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -849,15 +928,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +941,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="3"/>
@@ -1210,16 +1300,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1553176</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>181088</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>372076</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,7 +1326,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="533400"/>
+          <a:off x="13087350" y="3019425"/>
           <a:ext cx="4305901" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1248,16 +1338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>181342</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>286580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1274,8 +1364,317 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9648825" y="47625"/>
+          <a:off x="11972925" y="190500"/>
           <a:ext cx="5944430" cy="2629267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>48397</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="4591050"/>
+          <a:ext cx="5534797" cy="371527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>647</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="38100"/>
+          <a:ext cx="4639322" cy="4848902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>851</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>143506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6096851" cy="4525006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>257624</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>124958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12887325" y="771525"/>
+          <a:ext cx="3219899" cy="8116433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>324999</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12820650" y="9925050"/>
+          <a:ext cx="8230749" cy="4667901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>257892</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="15049500"/>
+          <a:ext cx="5134692" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>439147</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>10191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obraz 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="16954500"/>
+          <a:ext cx="7144747" cy="4772691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419499</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>181452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Obraz 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="22098000"/>
+          <a:ext cx="2857899" cy="3419952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,7 +2033,7 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>E5-E4</f>
         <v>99</v>
       </c>
@@ -1672,7 +2071,7 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>I9-I8</f>
         <v>44</v>
       </c>
@@ -1709,7 +2108,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f>_xlfn.VAR.P(A2:A226)</f>
         <v>607.72693333333336</v>
       </c>
@@ -1742,7 +2141,7 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <f>SQRT(E13)</f>
         <v>24.652118232179021</v>
       </c>
@@ -1799,7 +2198,7 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>22</v>
       </c>
       <c r="F23" t="s">
@@ -2868,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,28 +3298,28 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2928,33 +3327,33 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>13</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="32">
         <f>B7*C7</f>
         <v>26</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f>B7-$B$15</f>
         <v>-1.4451219512195124</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <f>E7^2</f>
         <v>2.0883774538964905</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <f>F7*C7</f>
         <v>27.148906900654378</v>
       </c>
-      <c r="H7" s="31">
-        <f>E7^3</f>
+      <c r="H7" s="30">
+        <f t="shared" ref="H7:H12" si="0">E7^3</f>
         <v>-3.0179601010577337</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <f>H7*C7</f>
         <v>-39.233481313750538</v>
       </c>
@@ -2963,34 +3362,34 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>26</v>
       </c>
-      <c r="D8" s="36">
-        <f t="shared" ref="D8:D12" si="0">B8*C8</f>
+      <c r="D8" s="32">
+        <f t="shared" ref="D8:D12" si="1">B8*C8</f>
         <v>78</v>
       </c>
-      <c r="E8" s="31">
-        <f t="shared" ref="E8:E12" si="1">B8-$B$15</f>
+      <c r="E8" s="30">
+        <f t="shared" ref="E8:E12" si="2">B8-$B$15</f>
         <v>-0.44512195121951237</v>
       </c>
-      <c r="F8" s="31">
-        <f t="shared" ref="F8:F12" si="2">E8^2</f>
+      <c r="F8" s="30">
+        <f t="shared" ref="F8:F12" si="3">E8^2</f>
         <v>0.19813355145746595</v>
       </c>
-      <c r="G8" s="31">
-        <f t="shared" ref="G8:G12" si="3">F8*C8</f>
+      <c r="G8" s="30">
+        <f t="shared" ref="G8:G12" si="4">F8*C8</f>
         <v>5.1514723378941145</v>
       </c>
-      <c r="H8" s="31">
-        <f>E8^3</f>
+      <c r="H8" s="30">
+        <f t="shared" si="0"/>
         <v>-8.8193593026798897E-2</v>
       </c>
-      <c r="I8" s="31">
-        <f t="shared" ref="I8:I12" si="4">H8*C8</f>
+      <c r="I8" s="30">
+        <f t="shared" ref="I8:I12" si="5">H8*C8</f>
         <v>-2.2930334186967714</v>
       </c>
     </row>
@@ -2998,34 +3397,34 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>3.5</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>11</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
+        <f t="shared" si="1"/>
+        <v>38.5</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="2"/>
+        <v>5.4878048780487632E-2</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="3"/>
+        <v>3.0116002379535801E-3</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="4"/>
+        <v>3.3127602617489385E-2</v>
+      </c>
+      <c r="H9" s="30">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E9" s="31">
-        <f t="shared" si="1"/>
-        <v>5.4878048780487632E-2</v>
-      </c>
-      <c r="F9" s="31">
-        <f t="shared" si="2"/>
-        <v>3.0116002379535801E-3</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="3"/>
-        <v>3.3127602617489385E-2</v>
-      </c>
-      <c r="H9" s="31">
-        <f>E9^3</f>
         <v>1.6527074476574473E-4</v>
       </c>
-      <c r="I9" s="31">
-        <f t="shared" si="4"/>
+      <c r="I9" s="30">
+        <f t="shared" si="5"/>
         <v>1.817978192423192E-3</v>
       </c>
     </row>
@@ -3033,34 +3432,34 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>4</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>15</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="32">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="2"/>
+        <v>0.55487804878048763</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="3"/>
+        <v>0.30788964901844124</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="4"/>
+        <v>4.6183447352766187</v>
+      </c>
+      <c r="H10" s="30">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E10" s="31">
-        <f t="shared" si="1"/>
-        <v>0.55487804878048763</v>
-      </c>
-      <c r="F10" s="31">
-        <f t="shared" si="2"/>
-        <v>0.30788964901844124</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="3"/>
-        <v>4.6183447352766187</v>
-      </c>
-      <c r="H10" s="31">
-        <f>E10^3</f>
         <v>0.17084120768706185</v>
       </c>
-      <c r="I10" s="31">
-        <f t="shared" si="4"/>
+      <c r="I10" s="30">
+        <f t="shared" si="5"/>
         <v>2.5626181153059275</v>
       </c>
     </row>
@@ -3068,34 +3467,34 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>4.5</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>10</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="32">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="2"/>
+        <v>1.0548780487804876</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="3"/>
+        <v>1.1127676977989289</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="4"/>
+        <v>11.127676977989289</v>
+      </c>
+      <c r="H11" s="30">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E11" s="31">
-        <f t="shared" si="1"/>
-        <v>1.0548780487804876</v>
-      </c>
-      <c r="F11" s="31">
-        <f t="shared" si="2"/>
-        <v>1.1127676977989289</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="3"/>
-        <v>11.127676977989289</v>
-      </c>
-      <c r="H11" s="31">
-        <f>E11^3</f>
         <v>1.1738342178000896</v>
       </c>
-      <c r="I11" s="31">
-        <f t="shared" si="4"/>
+      <c r="I11" s="30">
+        <f t="shared" si="5"/>
         <v>11.738342178000895</v>
       </c>
     </row>
@@ -3103,58 +3502,58 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>7</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="32">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" si="2"/>
+        <v>1.5548780487804876</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="3"/>
+        <v>2.4176457465794163</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="4"/>
+        <v>16.923520226055913</v>
+      </c>
+      <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E12" s="31">
-        <f t="shared" si="1"/>
-        <v>1.5548780487804876</v>
-      </c>
-      <c r="F12" s="31">
-        <f t="shared" si="2"/>
-        <v>2.4176457465794163</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="3"/>
-        <v>16.923520226055913</v>
-      </c>
-      <c r="H12" s="31">
-        <f>E12^3</f>
         <v>3.7591443010838481</v>
       </c>
-      <c r="I12" s="31">
-        <f t="shared" si="4"/>
+      <c r="I12" s="30">
+        <f t="shared" si="5"/>
         <v>26.314010107586938</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26">
         <f>SUM(C7:C12)</f>
         <v>82</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="33">
         <f>SUM(D7:D12)</f>
         <v>282.5</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="38">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="34">
         <f>SUM(G7:G12)</f>
         <v>65.003048780487802</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="38">
+      <c r="H13" s="31"/>
+      <c r="I13" s="34">
         <f>SUM(I7:I12)</f>
         <v>-0.90972635336112617</v>
       </c>
@@ -3163,7 +3562,7 @@
       <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f>D13/C13</f>
         <v>3.4451219512195124</v>
       </c>
@@ -3172,7 +3571,7 @@
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f>G13/C13</f>
         <v>0.79272010707911955</v>
       </c>
@@ -3181,47 +3580,47 @@
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>SQRT(B16)</f>
         <v>0.8903483066076554</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36">
         <f>B17/B15</f>
         <v>0.25843738457284154</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="37"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <f>I13/C13</f>
         <v>-1.1094223821477149E-2</v>
       </c>
@@ -3230,7 +3629,7 @@
       <c r="J26" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <f>N25/K27</f>
         <v>-1.5718717625099358E-2</v>
       </c>
@@ -3239,7 +3638,7 @@
       <c r="J27" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <f>B17^3</f>
         <v>0.70579700495173336</v>
       </c>
@@ -3266,26 +3665,26 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39">
         <f>(B15-B37)/B17</f>
         <v>0.49994136891828972</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
       <c r="N40" t="s">
         <v>78</v>
       </c>
@@ -3301,7 +3700,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,7 +3732,7 @@
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>B7*2.82</f>
         <v>10.462199999999999</v>
       </c>
@@ -3342,7 +3741,7 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>B8*0.88</f>
         <v>9.2067359999999994</v>
       </c>
@@ -3351,7 +3750,7 @@
       <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f>3*B9-2*B8</f>
         <v>6.6958079999999995</v>
       </c>
@@ -3378,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,157 +3810,315 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>96</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>96</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="E7" s="3">
+        <f>B7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <f>B7-$B$15</f>
+        <v>-1.2429022082018928</v>
+      </c>
+      <c r="G7" s="44">
+        <f>POWER(F7,2)</f>
+        <v>1.5448058991531413</v>
+      </c>
+      <c r="H7" s="45">
+        <f>G7*C7</f>
+        <v>148.30136631870155</v>
+      </c>
+      <c r="I7" s="45">
+        <f>F7^4</f>
+        <v>2.3864252660583452</v>
+      </c>
+      <c r="J7" s="45">
+        <f>I7*C7</f>
+        <v>229.09682554160113</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>101</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>C8+D7</f>
         <v>197</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="E8" s="3">
+        <f t="shared" ref="E8:E12" si="0">B8*C8</f>
+        <v>101</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" ref="F8:F12" si="1">B8-$B$15</f>
+        <v>-0.24290220820189279</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" ref="G8:G12" si="2">POWER(F8,2)</f>
+        <v>5.9001482749355676E-2</v>
+      </c>
+      <c r="H8" s="45">
+        <f t="shared" ref="H8:H12" si="3">G8*C8</f>
+        <v>5.9591497576849228</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" ref="I8:I12" si="4">F8^4</f>
+        <v>3.4811749666225152E-3</v>
+      </c>
+      <c r="J8" s="45">
+        <f t="shared" ref="J8:J12" si="5">I8*C8</f>
+        <v>0.35159867162887404</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>79</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" ref="D9:D12" si="0">C9+D8</f>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:D12" si="6">C9+D8</f>
         <v>276</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="1"/>
+        <v>0.75709779179810721</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" si="2"/>
+        <v>0.57319706634557011</v>
+      </c>
+      <c r="H9" s="45">
+        <f t="shared" si="3"/>
+        <v>45.282568241300041</v>
+      </c>
+      <c r="I9" s="45">
+        <f t="shared" si="4"/>
+        <v>0.32855487686716789</v>
+      </c>
+      <c r="J9" s="45">
+        <f t="shared" si="5"/>
+        <v>25.955835272506263</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>31</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
+        <f t="shared" si="6"/>
+        <v>307</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>307</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="F10" s="44">
+        <f t="shared" si="1"/>
+        <v>1.7570977917981072</v>
+      </c>
+      <c r="G10" s="44">
+        <f t="shared" si="2"/>
+        <v>3.0873926499417843</v>
+      </c>
+      <c r="H10" s="45">
+        <f t="shared" si="3"/>
+        <v>95.709172148195307</v>
+      </c>
+      <c r="I10" s="45">
+        <f t="shared" si="4"/>
+        <v>9.5319933749145527</v>
+      </c>
+      <c r="J10" s="45">
+        <f t="shared" si="5"/>
+        <v>295.49179462235111</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="44">
+        <f t="shared" si="1"/>
+        <v>2.757097791798107</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="2"/>
+        <v>7.6015882335379974</v>
+      </c>
+      <c r="H11" s="45">
+        <f t="shared" si="3"/>
+        <v>60.812705868303979</v>
+      </c>
+      <c r="I11" s="45">
+        <f t="shared" si="4"/>
+        <v>57.784143672263333</v>
+      </c>
+      <c r="J11" s="45">
+        <f t="shared" si="5"/>
+        <v>462.27314937810667</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
+        <f t="shared" si="6"/>
+        <v>317</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>317</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" si="1"/>
+        <v>3.757097791798107</v>
+      </c>
+      <c r="G12" s="44">
+        <f t="shared" si="2"/>
+        <v>14.115783817134211</v>
+      </c>
+      <c r="H12" s="45">
+        <f t="shared" si="3"/>
+        <v>28.231567634268423</v>
+      </c>
+      <c r="I12" s="45">
+        <f t="shared" si="4"/>
+        <v>199.25535277206808</v>
+      </c>
+      <c r="J12" s="45">
+        <f t="shared" si="5"/>
+        <v>398.51070554413616</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f>SUM(C7:C12)</f>
         <v>317</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
+        <f>SUM(E7:E12)</f>
+        <v>394</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="46">
+        <f>SUM(H7:H12)</f>
+        <v>384.29652996845419</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46">
+        <f>SUM(J7:J12)</f>
+        <v>1411.6799090303302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="43">
+        <f>E13/C13</f>
+        <v>1.2429022082018928</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0</v>
       </c>
       <c r="D17" t="s">
@@ -3678,6 +4235,64 @@
       <c r="B25">
         <f>(E17+B17-2*B23)/E17-B17</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <f>SQRT(B29)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4">
+        <f>J13/C13</f>
+        <v>4.4532489243858997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <f>B30^4</f>
+        <v>1.4641000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B31/B32</f>
+        <v>3.0416289354455968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B33-3</f>
+        <v>4.162893544559676E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +4306,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,130 +4339,130 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>2008</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>210478513</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>200617275</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>2009</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>149569836</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>165601136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>2010</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>174127590</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>201703334</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>2011</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>209191546</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>234205823</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>2012</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>191430112</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>250464794</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2013</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>205613793</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>232481271</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>2014</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>216687292</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>227544231</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>2015</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>189696474</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>200113780</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>2016</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>188517819</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>189406028</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>2017</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>217978576</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>228441737</v>
       </c>
     </row>
@@ -3857,4 +4472,115 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L2:AA142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="W143" sqref="W143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="21:27" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="21:27" x14ac:dyDescent="0.25">
+      <c r="AA50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="21:27" x14ac:dyDescent="0.25">
+      <c r="U53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W136" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W137" t="s">
+        <v>32</v>
+      </c>
+      <c r="X137">
+        <v>17.189</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA137">
+        <v>17.942</v>
+      </c>
+    </row>
+    <row r="138" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W138" t="s">
+        <v>113</v>
+      </c>
+      <c r="X138">
+        <v>45.22</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA138">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="140" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W140" t="s">
+        <v>116</v>
+      </c>
+      <c r="X140" s="47">
+        <f>X137/X138</f>
+        <v>0.38011941618752765</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA140" s="47">
+        <f>AA137/AA138</f>
+        <v>0.38231408480715962</v>
+      </c>
+    </row>
+    <row r="142" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W142" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>